--- a/biology/Zoologie/Electrotettix_attenboroughi/Electrotettix_attenboroughi.xlsx
+++ b/biology/Zoologie/Electrotettix_attenboroughi/Electrotettix_attenboroughi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Electrotettix attenboroughi, unique représentant du genre Electrotettix,  est une espèce fossile d'insectes orthoptères de la famille des  Tetrigidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Electrotettix attenboroughi, unique représentant du genre Electrotettix,  est une espèce fossile d'insectes orthoptères de la famille des  Tetrigidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle a été découverte dans de l'ambre en République dominicaine[1]. Elle date du Burdigalien au Miocène soit de 18 à 20 millions d'années[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle a été découverte dans de l'ambre en République dominicaine. Elle date du Burdigalien au Miocène soit de 18 à 20 millions d'années.
 </t>
         </is>
       </c>
@@ -542,12 +556,14 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La femelle holotype mesure 8 millimètres de long. Le mâle est inconnu[2].
-L'espèce se distingue des membres modernes de la sous-famille de Cladonotinae par le fait qu'elle conserve des vestiges d'ailes, fonctionnalité perdue quelque part entre les anciens spécimens et les espèces modernes[2],[3].
-Il se nourrissait principalement de mousse, de champignons et d'algues[3].
-Electrotettix attenboroughi a été identifié dans une collection d'ambre de l´Illinois Natural History Survey (en) recueillie dans les années 1950 par l'entomologiste Milton Sanderson et conservée depuis dans une armoire [4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La femelle holotype mesure 8 millimètres de long. Le mâle est inconnu.
+L'espèce se distingue des membres modernes de la sous-famille de Cladonotinae par le fait qu'elle conserve des vestiges d'ailes, fonctionnalité perdue quelque part entre les anciens spécimens et les espèces modernes,.
+Il se nourrissait principalement de mousse, de champignons et d'algues.
+Electrotettix attenboroughi a été identifié dans une collection d'ambre de l´Illinois Natural History Survey (en) recueillie dans les années 1950 par l'entomologiste Milton Sanderson et conservée depuis dans une armoire .
 </t>
         </is>
       </c>
@@ -576,10 +592,12 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom du genre dérive du latin electrum désignant l'ambre et du grec ancien : τέττιξ signifiant cigale[2].
-L'espèce est nommée en l'honneur de David Attenborough[5].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom du genre dérive du latin electrum désignant l'ambre et du grec ancien : τέττιξ signifiant cigale.
+L'espèce est nommée en l'honneur de David Attenborough.
 </t>
         </is>
       </c>
@@ -608,7 +626,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Heads, Thomas &amp; Wang, 2014 : « A remarkable new pygmy grasshopper (Orthoptera, Tetrigidae) in Miocene amber from the Dominican Republic ». ZooKeys, no 429, p. 87-100 (lire en ligne).</t>
         </is>
